--- a/excel_exports/Class_Report_ENTC_TYB_2025-06-08_to_2025-06-22.xlsx
+++ b/excel_exports/Class_Report_ENTC_TYB_2025-06-08_to_2025-06-22.xlsx
@@ -487,15 +487,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>91-100%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>

--- a/excel_exports/Class_Report_ENTC_TYB_2025-06-08_to_2025-06-22.xlsx
+++ b/excel_exports/Class_Report_ENTC_TYB_2025-06-08_to_2025-06-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC3268</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sachin Lonkar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
